--- a/新学校运营开支收入.xlsx
+++ b/新学校运营开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,115 +46,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>240800
-学费（160人 * 1200元 = 192000元）
-住宿费（80人 * 100元 * 4个月 = 32000元）
-生活费（30顿饭 * 7元 * 80人 = 16800元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寒假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120400
-学费（160人 * 600元 = 96000）
-住宿费（80人 * 200元 = 16000）
-生活费（15顿饭 * 7元 * 80人 = 8400）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暑假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>170400
-学费（160人 * 800元 = 128000元）
-住宿费（80人 * 250元 = 20000元）
-生活费（40顿饭 * 7元 * 80人 = 22400元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高中部一年总利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">学费（80人 * 1500元 = 120000元）
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120节课 * 150元 =18000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学费（80人 * 750元 = 60000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60节课 * 150元 = 9000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学费（80 * 1500 = 120000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80节课 * 150元 = 12000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初中部一年总利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小学部一年总利润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学费（80 * 1000 = 80000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240000元
-学费（80人 * 400元 * 5个月 = 160000元）
-生活费（80人 * 200元 * 5个月 = 80000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>130000
-老师工资：4个人 * 2500元 * 5个月 = 50000元
-食堂开支：80000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18000元
-老师工资：4个人 * 2500元 * 1个月 = 10000元
-食堂开支：8000元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000元
-学费（80人 * 400元 * 1个月 = 32000元）
-生活费（80人 * 100元 * 1个月 = 8000元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64800
-老师工资:240节课 * 200元 = 48000元
-食堂开资：16800元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32400
-老师工资:120节课 * 200元 = 24000元
-食堂开资：8400元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54400
-老师工资：160节课 * 200元 = 32000元
-食堂开资：22400元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +104,89 @@
   <si>
     <t>收入预算
 （高中20元一节课，初中25元一节课，小学400元一个月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（192人 * 1200元 = 230400元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资:360节课 * 200元 = 72000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（192人 * 600元 = 115200）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资:180节课 * 200元 = 36000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（192人 * 800元 = 153600元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资：240节课 * 200元 = 48000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学费（192人 * 1500元 = 288000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360节课 * 150元 =54000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费（192人 * 750元 = 144000元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180节课 * 150元 = 27000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学费（192人 * 1000元 = 192000元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240节课 * 150元 = 36000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">学费（96人 * 400元 * 5个月 = 192000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资：4个人 * 2500元 * 5个月 = 50000元
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+学费（96人 * 500元 * 1个月 = 48000元）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+老师工资：4个人 * 2500元 * 1个月 = 10000元
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,30 +257,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +567,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -600,408 +579,408 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="60.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="69" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>158400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="69.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f>SUM(D4:D7)</f>
+        <v>501600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="54">
-      <c r="A6" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>SUM(D13:D16)</f>
+        <v>741000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="85.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4">
-        <v>116000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <f>SUM(D22:D25)</f>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4">
-        <f>SUM(D4:D7)</f>
-        <v>556000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>501600</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B30" s="1">
+        <v>741000</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B31" s="1">
+        <v>360000</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B32" s="1">
+        <v>-24000</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B33" s="1">
+        <v>-24000</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B34" s="1">
+        <v>-24000</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="B35" s="1">
+        <v>-24000</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4">
-        <f>SUM(D13:D16)</f>
-        <v>343000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="40.5">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="40.5">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="4">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.5">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="40.5">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="B36" s="1">
+        <v>-144000</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4">
-        <f>SUM(D22:D25)</f>
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="4">
-        <v>556000</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4">
-        <v>343000</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4">
-        <v>264000</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="4">
-        <v>-24000</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="4">
-        <v>-24000</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4">
-        <v>-24000</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4">
-        <v>-24000</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="4">
-        <v>-64000</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="B37" s="1">
         <f>SUM(B29:B36)</f>
-        <v>1003000</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+        <v>1362600</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/新学校运营开支收入.xlsx
+++ b/新学校运营开支收入.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/新学校运营开支收入.xlsx
+++ b/新学校运营开支收入.xlsx
@@ -567,7 +567,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
